--- a/KPI_CGO_SelfBar.xlsx
+++ b/KPI_CGO_SelfBar.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oli/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B880C2D2-5746-674A-9E01-9A50087B899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>KPI</t>
   </si>
@@ -58,9 +64,6 @@
     <t>Volume de boissons servies par jour/événement (L)</t>
   </si>
   <si>
-    <t>Nombre et taux de résolution des tickets SAV</t>
-  </si>
-  <si>
     <t>Score de satisfaction des partenaires et clients finaux (NPS)</t>
   </si>
   <si>
@@ -82,14 +85,14 @@
     <t>Taux de conversion des campagnes marketing (%)</t>
   </si>
   <si>
-    <t>90% / 95%</t>
+    <t>Nombre et taux de résolution des tickets SAV en %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +155,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +293,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +486,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -474,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -488,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -502,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -516,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -530,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -544,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -558,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -572,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -586,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -600,23 +655,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -628,9 +683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -642,9 +697,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -656,9 +711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -670,9 +725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1000000</v>
@@ -684,9 +739,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>50</v>
@@ -698,9 +753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>5</v>

--- a/KPI_CGO_SelfBar.xlsx
+++ b/KPI_CGO_SelfBar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oli/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B880C2D2-5746-674A-9E01-9A50087B899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D17C74C-FEE5-E14A-90A0-8046C9DF20EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Objectif</t>
   </si>
   <si>
-    <t>Résultat Actuel</t>
-  </si>
-  <si>
     <t>Écart (%)</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Nombre et taux de résolution des tickets SAV en %</t>
+  </si>
+  <si>
+    <t>Réalisation</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,15 +509,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>500000</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>100000</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>5000</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>90</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>500</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>95</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1000000</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>50</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>5</v>
